--- a/QA_reports/bug_reports/FR24_BUG_REPORT_JV.xlsx
+++ b/QA_reports/bug_reports/FR24_BUG_REPORT_JV.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechIN\5. Projektas\Ziemos_kodas_JV\Ziemos_kodas QA\Bug reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vartotojas\Desktop\Ziemos_kodas\QA_reports\bug_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F5AA22-D041-4AA3-B235-ACEE720352F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BAFBD8-4492-43B3-AE57-B995A8388B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="3135" windowWidth="18975" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="1620" windowWidth="14085" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZK_Bug_Report" sheetId="1" r:id="rId1"/>
     <sheet name="Bug Report TEMPLE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -363,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,9 +375,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,7 +663,7 @@
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:B143"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -799,7 +795,9 @@
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4">
+        <v>45271</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -931,7 +929,9 @@
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="4">
+        <v>45271</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -1061,7 +1061,9 @@
       <c r="A52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="4">
+        <v>45271</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -1193,7 +1195,9 @@
       <c r="A70" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="4">
+        <v>45271</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -1239,7 +1243,7 @@
       <c r="A77" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1247,13 +1251,13 @@
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="6"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1325,7 +1329,9 @@
       <c r="A88" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="3"/>
+      <c r="B88" s="4">
+        <v>45271</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -1371,7 +1377,7 @@
       <c r="A95" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1379,13 +1385,13 @@
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="6"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1457,7 +1463,9 @@
       <c r="A106" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="4">
+        <v>45271</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -1501,7 +1509,7 @@
       <c r="A113" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1509,13 +1517,13 @@
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1587,7 +1595,9 @@
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B124" s="3"/>
+      <c r="B124" s="4">
+        <v>45271</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -1633,7 +1643,7 @@
       <c r="A131" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1641,13 +1651,13 @@
       <c r="A132" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1719,7 +1729,9 @@
       <c r="A142" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B142" s="3"/>
+      <c r="B142" s="4">
+        <v>45271</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
